--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H2">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>30.58380855846911</v>
+        <v>60.78152928232602</v>
       </c>
       <c r="R2">
-        <v>275.254277026222</v>
+        <v>547.0337635409342</v>
       </c>
       <c r="S2">
-        <v>0.001154582842193986</v>
+        <v>0.002315642984193637</v>
       </c>
       <c r="T2">
-        <v>0.001154582842193986</v>
+        <v>0.002315642984193637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H3">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>100.7441476755104</v>
+        <v>326.3095963290921</v>
       </c>
       <c r="R3">
-        <v>906.6973290795939</v>
+        <v>2936.786366961828</v>
       </c>
       <c r="S3">
-        <v>0.003803236739964208</v>
+        <v>0.01243168008992885</v>
       </c>
       <c r="T3">
-        <v>0.003803236739964207</v>
+        <v>0.01243168008992885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H4">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>50.64275898298355</v>
+        <v>173.116316372384</v>
       </c>
       <c r="R4">
-        <v>455.7848308468519</v>
+        <v>1558.046847351456</v>
       </c>
       <c r="S4">
-        <v>0.001911837124252682</v>
+        <v>0.006595352045110903</v>
       </c>
       <c r="T4">
-        <v>0.001911837124252682</v>
+        <v>0.006595352045110904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H5">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>120.2280459101078</v>
+        <v>353.2049049654061</v>
       </c>
       <c r="R5">
-        <v>1082.05241319097</v>
+        <v>3178.844144688654</v>
       </c>
       <c r="S5">
-        <v>0.004538781973243873</v>
+        <v>0.01345633237306107</v>
       </c>
       <c r="T5">
-        <v>0.004538781973243872</v>
+        <v>0.01345633237306107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J6">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>1889.563348728209</v>
+        <v>1159.39518869676</v>
       </c>
       <c r="R6">
-        <v>17006.07013855388</v>
+        <v>10434.55669827084</v>
       </c>
       <c r="S6">
-        <v>0.071333739142049</v>
+        <v>0.04417041437281142</v>
       </c>
       <c r="T6">
-        <v>0.071333739142049</v>
+        <v>0.04417041437281143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.083199</v>
       </c>
       <c r="I7">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J7">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
-        <v>6224.288537595901</v>
+        <v>6224.2885375959</v>
       </c>
       <c r="R7">
-        <v>56018.59683836311</v>
+        <v>56018.5968383631</v>
       </c>
       <c r="S7">
-        <v>0.2349758610551755</v>
+        <v>0.237131744690601</v>
       </c>
       <c r="T7">
-        <v>0.2349758610551755</v>
+        <v>0.237131744690601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.083199</v>
       </c>
       <c r="I8">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J8">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>3128.868043683305</v>
+        <v>3302.158182871035</v>
       </c>
       <c r="R8">
-        <v>28159.81239314975</v>
+        <v>29719.42364583931</v>
       </c>
       <c r="S8">
-        <v>0.1181192771272903</v>
+        <v>0.1258049858098321</v>
       </c>
       <c r="T8">
-        <v>0.1181192771272904</v>
+        <v>0.1258049858098322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.083199</v>
       </c>
       <c r="I9">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J9">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>7428.064709685838</v>
+        <v>6737.311026494086</v>
       </c>
       <c r="R9">
-        <v>66852.58238717254</v>
+        <v>60635.79923844677</v>
       </c>
       <c r="S9">
-        <v>0.2804201461081606</v>
+        <v>0.2566767765642245</v>
       </c>
       <c r="T9">
-        <v>0.2804201461081606</v>
+        <v>0.2566767765642245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H10">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>760.0840511184094</v>
+        <v>525.7603624249515</v>
       </c>
       <c r="R10">
-        <v>6840.756460065685</v>
+        <v>4731.843261824563</v>
       </c>
       <c r="S10">
-        <v>0.02869426815724678</v>
+        <v>0.02003031692344172</v>
       </c>
       <c r="T10">
-        <v>0.02869426815724679</v>
+        <v>0.02003031692344172</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H11">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>2503.743761843185</v>
+        <v>2822.578728347483</v>
       </c>
       <c r="R11">
-        <v>22533.69385658867</v>
+        <v>25403.20855512734</v>
       </c>
       <c r="S11">
-        <v>0.09451993472781098</v>
+        <v>0.1075340602121474</v>
       </c>
       <c r="T11">
-        <v>0.09451993472781098</v>
+        <v>0.1075340602121474</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H12">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>1258.599083041282</v>
+        <v>1497.456518654644</v>
       </c>
       <c r="R12">
-        <v>11327.39174737154</v>
+        <v>13477.10866789179</v>
       </c>
       <c r="S12">
-        <v>0.04751392893734772</v>
+        <v>0.05704980974484877</v>
       </c>
       <c r="T12">
-        <v>0.04751392893734773</v>
+        <v>0.05704980974484879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H13">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>2987.967310176593</v>
+        <v>3055.223207404234</v>
       </c>
       <c r="R13">
-        <v>26891.70579158934</v>
+        <v>27497.0088666381</v>
       </c>
       <c r="S13">
-        <v>0.1128000714093894</v>
+        <v>0.1163973047224463</v>
       </c>
       <c r="T13">
-        <v>0.1128000714093894</v>
+        <v>0.1163973047224463</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H14">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I14">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J14">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>0.5745895881806667</v>
+        <v>0.7084035450331111</v>
       </c>
       <c r="R14">
-        <v>5.171306293626</v>
+        <v>6.375631905298</v>
       </c>
       <c r="S14">
-        <v>2.169158489690446E-05</v>
+        <v>2.69886216816664E-05</v>
       </c>
       <c r="T14">
-        <v>2.169158489690447E-05</v>
+        <v>2.698862168166641E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H15">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I15">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J15">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>1.892718436744667</v>
+        <v>3.803110542746222</v>
       </c>
       <c r="R15">
-        <v>17.034465930702</v>
+        <v>34.227994884716</v>
       </c>
       <c r="S15">
-        <v>7.145284826092966E-05</v>
+        <v>0.0001448901722350038</v>
       </c>
       <c r="T15">
-        <v>7.145284826092966E-05</v>
+        <v>0.0001448901722350039</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H16">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I16">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J16">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>0.9514446826573332</v>
+        <v>2.017655917336889</v>
       </c>
       <c r="R16">
-        <v>8.563002143916</v>
+        <v>18.158903256032</v>
       </c>
       <c r="S16">
-        <v>3.591840773501905E-05</v>
+        <v>7.686826614374956E-05</v>
       </c>
       <c r="T16">
-        <v>3.591840773501906E-05</v>
+        <v>7.686826614374959E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H17">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I17">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J17">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>2.258769808056667</v>
+        <v>4.116573073348666</v>
       </c>
       <c r="R17">
-        <v>20.32892827251</v>
+        <v>37.04915766013799</v>
       </c>
       <c r="S17">
-        <v>8.527181498217474E-05</v>
+        <v>0.0001568324072917351</v>
       </c>
       <c r="T17">
-        <v>8.527181498217474E-05</v>
+        <v>0.0001568324072917351</v>
       </c>
     </row>
   </sheetData>
